--- a/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
+++ b/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
@@ -46,6 +46,18 @@
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -58,28 +70,28 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
+    <t xml:space="preserve">CM</t>
   </si>
   <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRC</t>
+    <t xml:space="preserve">Cameroon</t>
   </si>
   <si>
     <t xml:space="preserve">CF</t>
   </si>
   <si>
     <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">CG</t>
@@ -92,18 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">country-unspecified</t>
@@ -130,10 +130,22 @@
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC</t>
+  </si>
+  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
     <t xml:space="preserve">ER</t>
@@ -154,10 +166,10 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
-    <t xml:space="preserve">GD</t>
+    <t xml:space="preserve">GM</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenada</t>
+    <t xml:space="preserve">Gambia</t>
   </si>
   <si>
     <t xml:space="preserve">GE</t>
@@ -172,22 +184,22 @@
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">GM</t>
+    <t xml:space="preserve">GD</t>
   </si>
   <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GW</t>
@@ -202,16 +214,22 @@
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">HT</t>
+    <t xml:space="preserve">IN</t>
   </si>
   <si>
-    <t xml:space="preserve">Haiti</t>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -220,22 +238,16 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
+    <t xml:space="preserve">IR</t>
   </si>
   <si>
-    <t xml:space="preserve">India</t>
+    <t xml:space="preserve">Iran</t>
   </si>
   <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
     <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
   </si>
   <si>
     <t xml:space="preserve">KE</t>
@@ -250,12 +262,6 @@
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA</t>
   </si>
   <si>
@@ -268,22 +274,16 @@
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
-    <t xml:space="preserve">LK</t>
+    <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <t xml:space="preserve">Sri Lanka</t>
+    <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
     <t xml:space="preserve">LR</t>
   </si>
   <si>
     <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
     <t xml:space="preserve">LY</t>
@@ -298,10 +298,34 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
     <t xml:space="preserve">ML</t>
   </si>
   <si>
     <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
     <t xml:space="preserve">MM</t>
@@ -310,34 +334,22 @@
     <t xml:space="preserve">Myanmar</t>
   </si>
   <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
     <t xml:space="preserve">NE</t>
@@ -352,16 +364,22 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">NI</t>
+    <t xml:space="preserve">KP</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicaragua</t>
+    <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
+    <t xml:space="preserve">PK</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepal</t>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
   </si>
   <si>
     <t xml:space="preserve">PE</t>
@@ -376,34 +394,16 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
     <t xml:space="preserve">RU</t>
   </si>
   <si>
     <t xml:space="preserve">Russian Federation</t>
   </si>
   <si>
-    <t xml:space="preserve">SB</t>
+    <t xml:space="preserve">SN</t>
   </si>
   <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
+    <t xml:space="preserve">Senegal</t>
   </si>
   <si>
     <t xml:space="preserve">SL</t>
@@ -412,10 +412,10 @@
     <t xml:space="preserve">Sierra Leone</t>
   </si>
   <si>
-    <t xml:space="preserve">SN</t>
+    <t xml:space="preserve">SB</t>
   </si>
   <si>
-    <t xml:space="preserve">Senegal</t>
+    <t xml:space="preserve">Solomon Islands</t>
   </si>
   <si>
     <t xml:space="preserve">SO</t>
@@ -430,10 +430,22 @@
     <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SV</t>
+    <t xml:space="preserve">LK</t>
   </si>
   <si>
-    <t xml:space="preserve">El Salvador</t>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
     <t xml:space="preserve">SY</t>
@@ -442,22 +454,16 @@
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
     <t xml:space="preserve">TJ</t>
   </si>
   <si>
     <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">TL</t>
@@ -466,22 +472,16 @@
     <t xml:space="preserve">Timor-Leste</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
+    <t xml:space="preserve">UG</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
     <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">VU</t>
@@ -1786,7 +1786,7 @@
         <v>2005</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1814,7 +1814,7 @@
         <v>2007</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1842,7 +1842,7 @@
         <v>2009</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1856,7 +1856,7 @@
         <v>2010</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1884,7 +1884,7 @@
         <v>2012</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1898,7 +1898,7 @@
         <v>2013</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1912,7 +1912,7 @@
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1926,7 +1926,7 @@
         <v>2015</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1940,7 +1940,7 @@
         <v>2000</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1954,7 +1954,7 @@
         <v>2001</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1968,7 +1968,7 @@
         <v>2002</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1982,7 +1982,7 @@
         <v>2003</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2010,7 +2010,7 @@
         <v>2005</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2024,7 +2024,7 @@
         <v>2006</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2052,7 +2052,7 @@
         <v>2008</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2150,7 +2150,7 @@
         <v>2015</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2234,7 +2234,7 @@
         <v>2005</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2262,7 +2262,7 @@
         <v>2007</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2290,7 +2290,7 @@
         <v>2009</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2304,7 +2304,7 @@
         <v>2010</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2332,7 +2332,7 @@
         <v>2012</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2346,7 +2346,7 @@
         <v>2013</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2360,7 +2360,7 @@
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2374,7 +2374,7 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2388,7 +2388,7 @@
         <v>2000</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2402,7 +2402,7 @@
         <v>2001</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2416,7 +2416,7 @@
         <v>2002</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2430,7 +2430,7 @@
         <v>2003</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2458,7 +2458,7 @@
         <v>2005</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2472,7 +2472,7 @@
         <v>2006</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2500,7 +2500,7 @@
         <v>2008</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2598,7 +2598,7 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2612,7 +2612,7 @@
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2626,7 +2626,7 @@
         <v>2001</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2640,7 +2640,7 @@
         <v>2002</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2654,7 +2654,7 @@
         <v>2003</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2668,7 +2668,7 @@
         <v>2004</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2682,7 +2682,7 @@
         <v>2005</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2696,7 +2696,7 @@
         <v>2006</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2710,7 +2710,7 @@
         <v>2007</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2724,7 +2724,7 @@
         <v>2008</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2738,7 +2738,7 @@
         <v>2009</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2752,7 +2752,7 @@
         <v>2010</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2766,7 +2766,7 @@
         <v>2011</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2780,7 +2780,7 @@
         <v>2012</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2794,7 +2794,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3060,7 +3060,7 @@
         <v>2000</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3074,7 +3074,7 @@
         <v>2001</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3088,7 +3088,7 @@
         <v>2002</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3116,7 +3116,7 @@
         <v>2004</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3172,7 +3172,7 @@
         <v>2008</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3186,7 +3186,7 @@
         <v>2009</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3214,7 +3214,7 @@
         <v>2011</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3228,7 +3228,7 @@
         <v>2012</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3242,7 +3242,7 @@
         <v>2013</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3270,7 +3270,7 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3326,7 +3326,7 @@
         <v>2003</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3340,7 +3340,7 @@
         <v>2004</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3354,7 +3354,7 @@
         <v>2005</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3368,7 +3368,7 @@
         <v>2006</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3382,7 +3382,7 @@
         <v>2007</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3396,7 +3396,7 @@
         <v>2008</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3410,7 +3410,7 @@
         <v>2009</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3452,7 +3452,7 @@
         <v>2012</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3508,7 +3508,7 @@
         <v>2000</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -3522,7 +3522,7 @@
         <v>2001</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -3536,7 +3536,7 @@
         <v>2002</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -3578,7 +3578,7 @@
         <v>2005</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -3592,7 +3592,7 @@
         <v>2006</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -3606,7 +3606,7 @@
         <v>2007</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -3648,7 +3648,7 @@
         <v>2010</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -3718,7 +3718,7 @@
         <v>2015</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3774,7 +3774,7 @@
         <v>2003</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -3788,7 +3788,7 @@
         <v>2004</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -3802,7 +3802,7 @@
         <v>2005</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -3816,7 +3816,7 @@
         <v>2006</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -3830,7 +3830,7 @@
         <v>2007</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3844,7 +3844,7 @@
         <v>2008</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -3858,7 +3858,7 @@
         <v>2009</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -3900,7 +3900,7 @@
         <v>2012</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4852,7 +4852,7 @@
         <v>2000</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -4866,7 +4866,7 @@
         <v>2001</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -4880,7 +4880,7 @@
         <v>2002</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -4894,7 +4894,7 @@
         <v>2003</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -4908,7 +4908,7 @@
         <v>2004</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -4922,7 +4922,7 @@
         <v>2005</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -4936,7 +4936,7 @@
         <v>2006</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -4950,7 +4950,7 @@
         <v>2007</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -4964,7 +4964,7 @@
         <v>2008</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -4978,7 +4978,7 @@
         <v>2009</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -4992,7 +4992,7 @@
         <v>2010</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -5006,7 +5006,7 @@
         <v>2011</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -5020,7 +5020,7 @@
         <v>2012</v>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -5034,7 +5034,7 @@
         <v>2013</v>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -5048,7 +5048,7 @@
         <v>2014</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -5062,7 +5062,7 @@
         <v>2015</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -5090,7 +5090,7 @@
         <v>2001</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -5104,7 +5104,7 @@
         <v>2002</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -5118,7 +5118,7 @@
         <v>2003</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -5132,7 +5132,7 @@
         <v>2004</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -5146,7 +5146,7 @@
         <v>2005</v>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -5314,7 +5314,7 @@
         <v>2001</v>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -5370,7 +5370,7 @@
         <v>2005</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -5384,7 +5384,7 @@
         <v>2006</v>
       </c>
       <c r="D312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -5426,7 +5426,7 @@
         <v>2009</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -5454,7 +5454,7 @@
         <v>2011</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -5538,7 +5538,7 @@
         <v>2001</v>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -5552,7 +5552,7 @@
         <v>2002</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -5566,7 +5566,7 @@
         <v>2003</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5580,7 +5580,7 @@
         <v>2004</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -5594,7 +5594,7 @@
         <v>2005</v>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -5762,7 +5762,7 @@
         <v>2001</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -5804,7 +5804,7 @@
         <v>2004</v>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -5832,7 +5832,7 @@
         <v>2006</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -6084,7 +6084,7 @@
         <v>2008</v>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -6294,7 +6294,7 @@
         <v>2007</v>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6392,7 +6392,7 @@
         <v>2014</v>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -6406,7 +6406,7 @@
         <v>2015</v>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -6532,7 +6532,7 @@
         <v>2008</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -6616,7 +6616,7 @@
         <v>2014</v>
       </c>
       <c r="D400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -6630,7 +6630,7 @@
         <v>2015</v>
       </c>
       <c r="D401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -6672,7 +6672,7 @@
         <v>2002</v>
       </c>
       <c r="D404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -6686,7 +6686,7 @@
         <v>2003</v>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -6700,7 +6700,7 @@
         <v>2004</v>
       </c>
       <c r="D406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -6714,7 +6714,7 @@
         <v>2005</v>
       </c>
       <c r="D407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -6728,7 +6728,7 @@
         <v>2006</v>
       </c>
       <c r="D408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -6742,7 +6742,7 @@
         <v>2007</v>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -6840,7 +6840,7 @@
         <v>2014</v>
       </c>
       <c r="D416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -6924,7 +6924,7 @@
         <v>2004</v>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -6938,7 +6938,7 @@
         <v>2005</v>
       </c>
       <c r="D423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -7008,7 +7008,7 @@
         <v>2010</v>
       </c>
       <c r="D428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -7078,7 +7078,7 @@
         <v>2015</v>
       </c>
       <c r="D433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -7162,7 +7162,7 @@
         <v>2005</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -7176,7 +7176,7 @@
         <v>2006</v>
       </c>
       <c r="D440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -7232,7 +7232,7 @@
         <v>2010</v>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -7302,7 +7302,7 @@
         <v>2015</v>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -7344,7 +7344,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -7358,7 +7358,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -7372,7 +7372,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -7400,7 +7400,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -7512,7 +7512,7 @@
         <v>2014</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -7624,7 +7624,7 @@
         <v>2006</v>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -7652,7 +7652,7 @@
         <v>2008</v>
       </c>
       <c r="D474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -7750,7 +7750,7 @@
         <v>2015</v>
       </c>
       <c r="D481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -7806,7 +7806,7 @@
         <v>2003</v>
       </c>
       <c r="D485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -7820,7 +7820,7 @@
         <v>2004</v>
       </c>
       <c r="D486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -7834,7 +7834,7 @@
         <v>2005</v>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -7876,7 +7876,7 @@
         <v>2008</v>
       </c>
       <c r="D490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -7904,7 +7904,7 @@
         <v>2010</v>
       </c>
       <c r="D492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -7918,7 +7918,7 @@
         <v>2011</v>
       </c>
       <c r="D493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -7932,7 +7932,7 @@
         <v>2012</v>
       </c>
       <c r="D494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -7946,7 +7946,7 @@
         <v>2013</v>
       </c>
       <c r="D495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -7960,7 +7960,7 @@
         <v>2014</v>
       </c>
       <c r="D496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -7974,7 +7974,7 @@
         <v>2015</v>
       </c>
       <c r="D497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -7988,7 +7988,7 @@
         <v>2000</v>
       </c>
       <c r="D498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -8002,7 +8002,7 @@
         <v>2001</v>
       </c>
       <c r="D499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -8016,7 +8016,7 @@
         <v>2002</v>
       </c>
       <c r="D500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -8044,7 +8044,7 @@
         <v>2004</v>
       </c>
       <c r="D502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -8072,7 +8072,7 @@
         <v>2006</v>
       </c>
       <c r="D504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -8100,7 +8100,7 @@
         <v>2008</v>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -8114,7 +8114,7 @@
         <v>2009</v>
       </c>
       <c r="D507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -8128,7 +8128,7 @@
         <v>2010</v>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -8142,7 +8142,7 @@
         <v>2011</v>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -8156,7 +8156,7 @@
         <v>2012</v>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -8170,7 +8170,7 @@
         <v>2013</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -8184,7 +8184,7 @@
         <v>2014</v>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -8198,7 +8198,7 @@
         <v>2015</v>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -8282,7 +8282,7 @@
         <v>2005</v>
       </c>
       <c r="D519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -8324,7 +8324,7 @@
         <v>2008</v>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -8422,7 +8422,7 @@
         <v>2015</v>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -8478,7 +8478,7 @@
         <v>2003</v>
       </c>
       <c r="D533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -8506,7 +8506,7 @@
         <v>2005</v>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -8534,7 +8534,7 @@
         <v>2007</v>
       </c>
       <c r="D537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -8548,7 +8548,7 @@
         <v>2008</v>
       </c>
       <c r="D538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -8562,7 +8562,7 @@
         <v>2009</v>
       </c>
       <c r="D539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -8576,7 +8576,7 @@
         <v>2010</v>
       </c>
       <c r="D540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -8632,7 +8632,7 @@
         <v>2014</v>
       </c>
       <c r="D544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -8646,7 +8646,7 @@
         <v>2015</v>
       </c>
       <c r="D545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -8660,7 +8660,7 @@
         <v>2000</v>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -8674,7 +8674,7 @@
         <v>2001</v>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -8688,7 +8688,7 @@
         <v>2002</v>
       </c>
       <c r="D548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -8702,7 +8702,7 @@
         <v>2003</v>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -8744,7 +8744,7 @@
         <v>2006</v>
       </c>
       <c r="D552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -8786,7 +8786,7 @@
         <v>2009</v>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -8898,7 +8898,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -8968,7 +8968,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -8996,7 +8996,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -9010,7 +9010,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -9024,7 +9024,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -9038,7 +9038,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -9052,7 +9052,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -9066,7 +9066,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -9150,7 +9150,7 @@
         <v>2003</v>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -9206,7 +9206,7 @@
         <v>2007</v>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -9234,7 +9234,7 @@
         <v>2009</v>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -9248,7 +9248,7 @@
         <v>2010</v>
       </c>
       <c r="D588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -9304,7 +9304,7 @@
         <v>2014</v>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -9318,7 +9318,7 @@
         <v>2015</v>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -9332,7 +9332,7 @@
         <v>2000</v>
       </c>
       <c r="D594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -9360,7 +9360,7 @@
         <v>2002</v>
       </c>
       <c r="D596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -9374,7 +9374,7 @@
         <v>2003</v>
       </c>
       <c r="D597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -9416,7 +9416,7 @@
         <v>2006</v>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -9430,7 +9430,7 @@
         <v>2007</v>
       </c>
       <c r="D601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -9444,7 +9444,7 @@
         <v>2008</v>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -9458,7 +9458,7 @@
         <v>2009</v>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -9472,7 +9472,7 @@
         <v>2010</v>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -9514,7 +9514,7 @@
         <v>2013</v>
       </c>
       <c r="D607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -9542,7 +9542,7 @@
         <v>2015</v>
       </c>
       <c r="D609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -9682,7 +9682,7 @@
         <v>2009</v>
       </c>
       <c r="D619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -9696,7 +9696,7 @@
         <v>2010</v>
       </c>
       <c r="D620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -9864,7 +9864,7 @@
         <v>2006</v>
       </c>
       <c r="D632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -9878,7 +9878,7 @@
         <v>2007</v>
       </c>
       <c r="D633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -9892,7 +9892,7 @@
         <v>2008</v>
       </c>
       <c r="D634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -9906,7 +9906,7 @@
         <v>2009</v>
       </c>
       <c r="D635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -10032,7 +10032,7 @@
         <v>2002</v>
       </c>
       <c r="D644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -10116,7 +10116,7 @@
         <v>2008</v>
       </c>
       <c r="D650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -10130,7 +10130,7 @@
         <v>2009</v>
       </c>
       <c r="D651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -10144,7 +10144,7 @@
         <v>2010</v>
       </c>
       <c r="D652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -10158,7 +10158,7 @@
         <v>2011</v>
       </c>
       <c r="D653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -10172,7 +10172,7 @@
         <v>2012</v>
       </c>
       <c r="D654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -10284,7 +10284,7 @@
         <v>2004</v>
       </c>
       <c r="D662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -10312,7 +10312,7 @@
         <v>2006</v>
       </c>
       <c r="D664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -10340,7 +10340,7 @@
         <v>2008</v>
       </c>
       <c r="D666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -10424,7 +10424,7 @@
         <v>2014</v>
       </c>
       <c r="D672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -10508,7 +10508,7 @@
         <v>2004</v>
       </c>
       <c r="D678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -10536,7 +10536,7 @@
         <v>2006</v>
       </c>
       <c r="D680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -10564,7 +10564,7 @@
         <v>2008</v>
       </c>
       <c r="D682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -10648,7 +10648,7 @@
         <v>2014</v>
       </c>
       <c r="D688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -11152,7 +11152,7 @@
         <v>2002</v>
       </c>
       <c r="D724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -11166,7 +11166,7 @@
         <v>2003</v>
       </c>
       <c r="D725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -11194,7 +11194,7 @@
         <v>2005</v>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -11292,7 +11292,7 @@
         <v>2012</v>
       </c>
       <c r="D734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -11306,7 +11306,7 @@
         <v>2013</v>
       </c>
       <c r="D735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -11320,7 +11320,7 @@
         <v>2014</v>
       </c>
       <c r="D736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -11334,7 +11334,7 @@
         <v>2015</v>
       </c>
       <c r="D737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -11460,7 +11460,7 @@
         <v>2008</v>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -11516,7 +11516,7 @@
         <v>2012</v>
       </c>
       <c r="D750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -11530,7 +11530,7 @@
         <v>2013</v>
       </c>
       <c r="D751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -11712,7 +11712,7 @@
         <v>2010</v>
       </c>
       <c r="D764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -11740,7 +11740,7 @@
         <v>2012</v>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -11754,7 +11754,7 @@
         <v>2013</v>
       </c>
       <c r="D767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -11768,7 +11768,7 @@
         <v>2014</v>
       </c>
       <c r="D768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -11782,7 +11782,7 @@
         <v>2015</v>
       </c>
       <c r="D769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -11936,7 +11936,7 @@
         <v>2010</v>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -11964,7 +11964,7 @@
         <v>2012</v>
       </c>
       <c r="D782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -11978,7 +11978,7 @@
         <v>2013</v>
       </c>
       <c r="D783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -11992,7 +11992,7 @@
         <v>2014</v>
       </c>
       <c r="D784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -12006,7 +12006,7 @@
         <v>2015</v>
       </c>
       <c r="D785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -12048,7 +12048,7 @@
         <v>2002</v>
       </c>
       <c r="D788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -12090,7 +12090,7 @@
         <v>2005</v>
       </c>
       <c r="D791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>2007</v>
       </c>
       <c r="D793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -12286,7 +12286,7 @@
         <v>2003</v>
       </c>
       <c r="D805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -12342,7 +12342,7 @@
         <v>2007</v>
       </c>
       <c r="D809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -12356,7 +12356,7 @@
         <v>2008</v>
       </c>
       <c r="D810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -12426,7 +12426,7 @@
         <v>2013</v>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -12440,7 +12440,7 @@
         <v>2014</v>
       </c>
       <c r="D816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -12454,7 +12454,7 @@
         <v>2015</v>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818">
@@ -12762,7 +12762,7 @@
         <v>2005</v>
       </c>
       <c r="D839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -12776,7 +12776,7 @@
         <v>2006</v>
       </c>
       <c r="D840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -12790,7 +12790,7 @@
         <v>2007</v>
       </c>
       <c r="D841" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -12804,7 +12804,7 @@
         <v>2008</v>
       </c>
       <c r="D842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -12818,7 +12818,7 @@
         <v>2009</v>
       </c>
       <c r="D843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -12832,7 +12832,7 @@
         <v>2010</v>
       </c>
       <c r="D844" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -12846,7 +12846,7 @@
         <v>2011</v>
       </c>
       <c r="D845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -12860,7 +12860,7 @@
         <v>2012</v>
       </c>
       <c r="D846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -12874,7 +12874,7 @@
         <v>2013</v>
       </c>
       <c r="D847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -12888,7 +12888,7 @@
         <v>2014</v>
       </c>
       <c r="D848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -13014,7 +13014,7 @@
         <v>2007</v>
       </c>
       <c r="D857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -13070,7 +13070,7 @@
         <v>2011</v>
       </c>
       <c r="D861" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
@@ -13112,7 +13112,7 @@
         <v>2014</v>
       </c>
       <c r="D864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -13126,7 +13126,7 @@
         <v>2015</v>
       </c>
       <c r="D865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -13210,7 +13210,7 @@
         <v>2005</v>
       </c>
       <c r="D871" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -13238,7 +13238,7 @@
         <v>2007</v>
       </c>
       <c r="D873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -13308,7 +13308,7 @@
         <v>2012</v>
       </c>
       <c r="D878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -13322,7 +13322,7 @@
         <v>2013</v>
       </c>
       <c r="D879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -13336,7 +13336,7 @@
         <v>2014</v>
       </c>
       <c r="D880" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -13350,7 +13350,7 @@
         <v>2015</v>
       </c>
       <c r="D881" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -13448,7 +13448,7 @@
         <v>2006</v>
       </c>
       <c r="D888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -13462,7 +13462,7 @@
         <v>2007</v>
       </c>
       <c r="D889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -13476,7 +13476,7 @@
         <v>2008</v>
       </c>
       <c r="D890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -13490,7 +13490,7 @@
         <v>2009</v>
       </c>
       <c r="D891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -13504,7 +13504,7 @@
         <v>2010</v>
       </c>
       <c r="D892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893">
@@ -13560,7 +13560,7 @@
         <v>2014</v>
       </c>
       <c r="D896" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -13574,7 +13574,7 @@
         <v>2015</v>
       </c>
       <c r="D897" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -13588,7 +13588,7 @@
         <v>2000</v>
       </c>
       <c r="D898" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -13602,7 +13602,7 @@
         <v>2001</v>
       </c>
       <c r="D899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -13616,7 +13616,7 @@
         <v>2002</v>
       </c>
       <c r="D900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -13630,7 +13630,7 @@
         <v>2003</v>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -13644,7 +13644,7 @@
         <v>2004</v>
       </c>
       <c r="D902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -13742,7 +13742,7 @@
         <v>2011</v>
       </c>
       <c r="D909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -13756,7 +13756,7 @@
         <v>2012</v>
       </c>
       <c r="D910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -13798,7 +13798,7 @@
         <v>2015</v>
       </c>
       <c r="D913" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914">
@@ -13868,7 +13868,7 @@
         <v>2004</v>
       </c>
       <c r="D918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -13896,7 +13896,7 @@
         <v>2006</v>
       </c>
       <c r="D920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -13910,7 +13910,7 @@
         <v>2007</v>
       </c>
       <c r="D921" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -13952,7 +13952,7 @@
         <v>2010</v>
       </c>
       <c r="D924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
@@ -13994,7 +13994,7 @@
         <v>2013</v>
       </c>
       <c r="D927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -14008,7 +14008,7 @@
         <v>2014</v>
       </c>
       <c r="D928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -14078,7 +14078,7 @@
         <v>2003</v>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -14092,7 +14092,7 @@
         <v>2004</v>
       </c>
       <c r="D934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -14106,7 +14106,7 @@
         <v>2005</v>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -14120,7 +14120,7 @@
         <v>2006</v>
       </c>
       <c r="D936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -14148,7 +14148,7 @@
         <v>2008</v>
       </c>
       <c r="D938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -14176,7 +14176,7 @@
         <v>2010</v>
       </c>
       <c r="D940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -14218,7 +14218,7 @@
         <v>2013</v>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -14232,7 +14232,7 @@
         <v>2014</v>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945">
@@ -14246,7 +14246,7 @@
         <v>2015</v>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -14302,7 +14302,7 @@
         <v>2003</v>
       </c>
       <c r="D949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950">
@@ -14316,7 +14316,7 @@
         <v>2004</v>
       </c>
       <c r="D950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -14330,7 +14330,7 @@
         <v>2005</v>
       </c>
       <c r="D951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -14344,7 +14344,7 @@
         <v>2006</v>
       </c>
       <c r="D952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -14372,7 +14372,7 @@
         <v>2008</v>
       </c>
       <c r="D954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -14386,7 +14386,7 @@
         <v>2009</v>
       </c>
       <c r="D955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -14400,7 +14400,7 @@
         <v>2010</v>
       </c>
       <c r="D956" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -14414,7 +14414,7 @@
         <v>2011</v>
       </c>
       <c r="D957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -14428,7 +14428,7 @@
         <v>2012</v>
       </c>
       <c r="D958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -14442,7 +14442,7 @@
         <v>2013</v>
       </c>
       <c r="D959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -14456,7 +14456,7 @@
         <v>2014</v>
       </c>
       <c r="D960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961">
@@ -14470,7 +14470,7 @@
         <v>2015</v>
       </c>
       <c r="D961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -14498,7 +14498,7 @@
         <v>2001</v>
       </c>
       <c r="D963" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -14512,7 +14512,7 @@
         <v>2002</v>
       </c>
       <c r="D964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -14526,7 +14526,7 @@
         <v>2003</v>
       </c>
       <c r="D965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -14554,7 +14554,7 @@
         <v>2005</v>
       </c>
       <c r="D967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -14582,7 +14582,7 @@
         <v>2007</v>
       </c>
       <c r="D969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -14610,7 +14610,7 @@
         <v>2009</v>
       </c>
       <c r="D971" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -14638,7 +14638,7 @@
         <v>2011</v>
       </c>
       <c r="D973" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -14652,7 +14652,7 @@
         <v>2012</v>
       </c>
       <c r="D974" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975">
@@ -14666,7 +14666,7 @@
         <v>2013</v>
       </c>
       <c r="D975" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976">
@@ -14680,7 +14680,7 @@
         <v>2014</v>
       </c>
       <c r="D976" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -14722,7 +14722,7 @@
         <v>2001</v>
       </c>
       <c r="D979" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980">
@@ -14736,7 +14736,7 @@
         <v>2002</v>
       </c>
       <c r="D980" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981">
@@ -14750,7 +14750,7 @@
         <v>2003</v>
       </c>
       <c r="D981" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982">
@@ -14764,7 +14764,7 @@
         <v>2004</v>
       </c>
       <c r="D982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -14778,7 +14778,7 @@
         <v>2005</v>
       </c>
       <c r="D983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -14792,7 +14792,7 @@
         <v>2006</v>
       </c>
       <c r="D984" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985">
@@ -14932,7 +14932,7 @@
         <v>2000</v>
       </c>
       <c r="D994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995">
@@ -14946,7 +14946,7 @@
         <v>2001</v>
       </c>
       <c r="D995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996">
@@ -14960,7 +14960,7 @@
         <v>2002</v>
       </c>
       <c r="D996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -14974,7 +14974,7 @@
         <v>2003</v>
       </c>
       <c r="D997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -14988,7 +14988,7 @@
         <v>2004</v>
       </c>
       <c r="D998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -15002,7 +15002,7 @@
         <v>2005</v>
       </c>
       <c r="D999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000">
@@ -15016,7 +15016,7 @@
         <v>2006</v>
       </c>
       <c r="D1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001">
@@ -15030,7 +15030,7 @@
         <v>2007</v>
       </c>
       <c r="D1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -15044,7 +15044,7 @@
         <v>2008</v>
       </c>
       <c r="D1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -15058,7 +15058,7 @@
         <v>2009</v>
       </c>
       <c r="D1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -15072,7 +15072,7 @@
         <v>2010</v>
       </c>
       <c r="D1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005">
@@ -15086,7 +15086,7 @@
         <v>2011</v>
       </c>
       <c r="D1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006">
@@ -15100,7 +15100,7 @@
         <v>2012</v>
       </c>
       <c r="D1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -15114,7 +15114,7 @@
         <v>2013</v>
       </c>
       <c r="D1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -15478,7 +15478,7 @@
         <v>2007</v>
       </c>
       <c r="D1033" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034">
@@ -15576,7 +15576,7 @@
         <v>2014</v>
       </c>
       <c r="D1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -15590,7 +15590,7 @@
         <v>2015</v>
       </c>
       <c r="D1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042">
@@ -16080,7 +16080,7 @@
         <v>2002</v>
       </c>
       <c r="D1076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077">
@@ -16122,7 +16122,7 @@
         <v>2005</v>
       </c>
       <c r="D1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -16136,7 +16136,7 @@
         <v>2006</v>
       </c>
       <c r="D1080" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -16150,7 +16150,7 @@
         <v>2007</v>
       </c>
       <c r="D1081" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082">
@@ -16164,7 +16164,7 @@
         <v>2008</v>
       </c>
       <c r="D1082" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083">
@@ -16192,7 +16192,7 @@
         <v>2010</v>
       </c>
       <c r="D1084" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085">
@@ -16206,7 +16206,7 @@
         <v>2011</v>
       </c>
       <c r="D1085" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -16220,7 +16220,7 @@
         <v>2012</v>
       </c>
       <c r="D1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -16276,7 +16276,7 @@
         <v>2000</v>
       </c>
       <c r="D1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -16290,7 +16290,7 @@
         <v>2001</v>
       </c>
       <c r="D1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
@@ -16304,7 +16304,7 @@
         <v>2002</v>
       </c>
       <c r="D1092" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -16318,7 +16318,7 @@
         <v>2003</v>
       </c>
       <c r="D1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -16332,7 +16332,7 @@
         <v>2004</v>
       </c>
       <c r="D1094" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
@@ -16346,7 +16346,7 @@
         <v>2005</v>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -16360,7 +16360,7 @@
         <v>2006</v>
       </c>
       <c r="D1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -16374,7 +16374,7 @@
         <v>2007</v>
       </c>
       <c r="D1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098">
@@ -16416,7 +16416,7 @@
         <v>2010</v>
       </c>
       <c r="D1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
@@ -16430,7 +16430,7 @@
         <v>2011</v>
       </c>
       <c r="D1101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -16444,7 +16444,7 @@
         <v>2012</v>
       </c>
       <c r="D1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103">
@@ -16458,7 +16458,7 @@
         <v>2013</v>
       </c>
       <c r="D1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -16472,7 +16472,7 @@
         <v>2014</v>
       </c>
       <c r="D1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105">
@@ -16486,7 +16486,7 @@
         <v>2015</v>
       </c>
       <c r="D1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106">
@@ -16780,7 +16780,7 @@
         <v>2004</v>
       </c>
       <c r="D1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -16794,7 +16794,7 @@
         <v>2005</v>
       </c>
       <c r="D1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -16808,7 +16808,7 @@
         <v>2006</v>
       </c>
       <c r="D1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129">
@@ -16822,7 +16822,7 @@
         <v>2007</v>
       </c>
       <c r="D1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -16864,7 +16864,7 @@
         <v>2010</v>
       </c>
       <c r="D1132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133">
@@ -16878,7 +16878,7 @@
         <v>2011</v>
       </c>
       <c r="D1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134">
@@ -16892,7 +16892,7 @@
         <v>2012</v>
       </c>
       <c r="D1134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -16906,7 +16906,7 @@
         <v>2013</v>
       </c>
       <c r="D1135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136">
@@ -16920,7 +16920,7 @@
         <v>2014</v>
       </c>
       <c r="D1136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -16934,7 +16934,7 @@
         <v>2015</v>
       </c>
       <c r="D1137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138">
@@ -17172,7 +17172,7 @@
         <v>2000</v>
       </c>
       <c r="D1154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155">
@@ -17186,7 +17186,7 @@
         <v>2001</v>
       </c>
       <c r="D1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156">
@@ -17200,7 +17200,7 @@
         <v>2002</v>
       </c>
       <c r="D1156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -17228,7 +17228,7 @@
         <v>2004</v>
       </c>
       <c r="D1158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159">
@@ -17256,7 +17256,7 @@
         <v>2006</v>
       </c>
       <c r="D1160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
@@ -17270,7 +17270,7 @@
         <v>2007</v>
       </c>
       <c r="D1161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162">
@@ -17284,7 +17284,7 @@
         <v>2008</v>
       </c>
       <c r="D1162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163">
@@ -17396,7 +17396,7 @@
         <v>2000</v>
       </c>
       <c r="D1170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171">
@@ -17410,7 +17410,7 @@
         <v>2001</v>
       </c>
       <c r="D1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172">
@@ -17424,7 +17424,7 @@
         <v>2002</v>
       </c>
       <c r="D1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173">
@@ -17452,7 +17452,7 @@
         <v>2004</v>
       </c>
       <c r="D1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -17480,7 +17480,7 @@
         <v>2006</v>
       </c>
       <c r="D1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
@@ -17494,7 +17494,7 @@
         <v>2007</v>
       </c>
       <c r="D1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -17508,7 +17508,7 @@
         <v>2008</v>
       </c>
       <c r="D1178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -17620,7 +17620,7 @@
         <v>2000</v>
       </c>
       <c r="D1186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187">
@@ -17634,7 +17634,7 @@
         <v>2001</v>
       </c>
       <c r="D1187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188">
@@ -17648,7 +17648,7 @@
         <v>2002</v>
       </c>
       <c r="D1188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189">
@@ -17662,7 +17662,7 @@
         <v>2003</v>
       </c>
       <c r="D1189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190">
@@ -17676,7 +17676,7 @@
         <v>2004</v>
       </c>
       <c r="D1190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191">
@@ -17690,7 +17690,7 @@
         <v>2005</v>
       </c>
       <c r="D1191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192">
@@ -17704,7 +17704,7 @@
         <v>2006</v>
       </c>
       <c r="D1192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193">
@@ -17718,7 +17718,7 @@
         <v>2007</v>
       </c>
       <c r="D1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194">
@@ -17732,7 +17732,7 @@
         <v>2008</v>
       </c>
       <c r="D1194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195">
@@ -17746,7 +17746,7 @@
         <v>2009</v>
       </c>
       <c r="D1195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196">
@@ -17760,7 +17760,7 @@
         <v>2010</v>
       </c>
       <c r="D1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -17816,7 +17816,7 @@
         <v>2014</v>
       </c>
       <c r="D1200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201">
@@ -17830,7 +17830,7 @@
         <v>2015</v>
       </c>
       <c r="D1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -17844,7 +17844,7 @@
         <v>2000</v>
       </c>
       <c r="D1202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203">
@@ -17858,7 +17858,7 @@
         <v>2001</v>
       </c>
       <c r="D1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -17872,7 +17872,7 @@
         <v>2002</v>
       </c>
       <c r="D1204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -17886,7 +17886,7 @@
         <v>2003</v>
       </c>
       <c r="D1205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206">
@@ -17900,7 +17900,7 @@
         <v>2004</v>
       </c>
       <c r="D1206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -17914,7 +17914,7 @@
         <v>2005</v>
       </c>
       <c r="D1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
@@ -17928,7 +17928,7 @@
         <v>2006</v>
       </c>
       <c r="D1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
@@ -17942,7 +17942,7 @@
         <v>2007</v>
       </c>
       <c r="D1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210">
@@ -17956,7 +17956,7 @@
         <v>2008</v>
       </c>
       <c r="D1210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211">
@@ -17970,7 +17970,7 @@
         <v>2009</v>
       </c>
       <c r="D1211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212">
@@ -17984,7 +17984,7 @@
         <v>2010</v>
       </c>
       <c r="D1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213">
@@ -18040,7 +18040,7 @@
         <v>2014</v>
       </c>
       <c r="D1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217">
@@ -18054,7 +18054,7 @@
         <v>2015</v>
       </c>
       <c r="D1217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -18972,51 +18972,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>175</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>176</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>177</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -19024,14 +19027,14 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -19040,20 +19043,20 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
@@ -19070,6 +19073,9 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19077,8 +19083,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -19096,7 +19102,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -19123,6 +19129,9 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19130,8 +19139,8 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -19143,10 +19152,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -19176,6 +19185,9 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19183,8 +19195,8 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -19202,69 +19214,72 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -19282,15 +19297,18 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -19305,7 +19323,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -19314,54 +19332,57 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -19389,58 +19410,64 @@
       </c>
       <c r="Q8" t="n">
         <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19448,8 +19475,8 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -19458,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -19494,6 +19521,9 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19501,14 +19531,14 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -19526,36 +19556,39 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -19564,25 +19597,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -19591,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -19600,6 +19633,9 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19607,17 +19643,17 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -19626,13 +19662,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -19641,7 +19677,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -19650,18 +19686,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -19670,28 +19709,28 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -19700,12 +19739,15 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19713,35 +19755,35 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -19750,15 +19792,18 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19766,8 +19811,8 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -19791,10 +19836,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -19806,12 +19851,15 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19819,14 +19867,14 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -19835,25 +19883,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -19865,6 +19913,9 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19872,8 +19923,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -19894,10 +19945,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -19918,6 +19969,9 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19925,76 +19979,79 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -20024,6 +20081,9 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20031,11 +20091,11 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -20050,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -20062,13 +20122,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -20077,6 +20137,9 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20084,26 +20147,26 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -20130,6 +20193,9 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20137,20 +20203,20 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -20159,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -20183,6 +20249,9 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20190,8 +20259,8 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -20215,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -20236,6 +20305,9 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20243,8 +20315,8 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -20265,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -20289,15 +20361,18 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -20324,7 +20399,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -20339,42 +20414,45 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -20392,9 +20470,12 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20402,8 +20483,8 @@
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -20433,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -20448,15 +20529,18 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -20489,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -20502,14 +20586,17 @@
       </c>
       <c r="Q29" t="n">
         <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -20518,19 +20605,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -20554,6 +20641,9 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20561,8 +20651,8 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -20583,10 +20673,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -20607,15 +20697,18 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -20624,69 +20717,72 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -20701,27 +20797,30 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -20736,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -20748,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -20767,14 +20866,17 @@
       </c>
       <c r="Q34" t="n">
         <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -20783,7 +20885,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -20792,19 +20894,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -20816,39 +20918,42 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -20857,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -20872,6 +20977,9 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20879,11 +20987,11 @@
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -20892,39 +21000,42 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20932,8 +21043,8 @@
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -20945,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -20960,13 +21071,13 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -20978,68 +21089,74 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -21063,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -21072,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -21084,6 +21201,9 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21091,8 +21211,8 @@
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -21110,19 +21230,19 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -21137,6 +21257,9 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21144,14 +21267,14 @@
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -21163,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -21172,16 +21295,16 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -21190,6 +21313,9 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21197,14 +21323,14 @@
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -21216,10 +21342,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -21234,15 +21360,18 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21250,23 +21379,23 @@
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -21275,10 +21404,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -21287,15 +21416,18 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21303,8 +21435,8 @@
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -21337,10 +21469,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -21349,6 +21481,9 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21356,8 +21491,8 @@
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -21369,16 +21504,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -21387,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -21402,6 +21537,9 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21409,8 +21547,8 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -21419,16 +21557,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -21446,24 +21584,27 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -21487,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -21502,12 +21643,15 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
       <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21515,8 +21659,8 @@
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -21546,7 +21690,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -21555,21 +21699,24 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -21602,42 +21749,45 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -21646,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -21667,6 +21817,9 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21674,8 +21827,8 @@
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -21684,7 +21837,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -21696,13 +21849,13 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -21717,18 +21870,21 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -21755,16 +21911,16 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -21773,6 +21929,9 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21780,8 +21939,8 @@
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -21796,36 +21955,39 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21833,8 +21995,8 @@
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -21858,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -21870,24 +22032,27 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -21905,10 +22070,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -21920,27 +22085,30 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -21958,66 +22126,69 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
         <v>2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -22029,24 +22200,27 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -22058,28 +22232,28 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
@@ -22088,9 +22262,12 @@
         <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22098,8 +22275,8 @@
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -22111,25 +22288,25 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -22138,21 +22315,24 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -22161,69 +22341,72 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -22235,21 +22418,24 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22257,32 +22443,32 @@
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -22303,6 +22489,9 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22310,52 +22499,55 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22363,8 +22555,8 @@
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -22379,7 +22571,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -22406,9 +22598,12 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22416,8 +22611,8 @@
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -22441,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -22459,18 +22654,21 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -22488,11 +22686,11 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
         <v>1</v>
       </c>
@@ -22515,6 +22713,9 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22522,8 +22723,8 @@
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -22556,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>1</v>
@@ -22565,9 +22766,12 @@
         <v>1</v>
       </c>
       <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
         <v>2</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22575,8 +22779,8 @@
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>0</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -22585,42 +22789,45 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22628,73 +22835,76 @@
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -22703,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -22727,6 +22937,9 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22734,8 +22947,8 @@
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -22747,19 +22960,19 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -22768,27 +22981,30 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>1</v>
+      <c r="B73" t="s">
+        <v>147</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -22803,23 +23019,23 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
         <v>2</v>
       </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
@@ -22833,6 +23049,9 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22840,14 +23059,14 @@
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -22856,16 +23075,16 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -22886,6 +23105,9 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22893,20 +23115,20 @@
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>1</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -22915,13 +23137,13 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -22939,6 +23161,9 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22946,41 +23171,41 @@
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -22989,48 +23214,51 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>1</v>
+      <c r="B77" t="s">
+        <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -23045,15 +23273,18 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -23098,6 +23329,9 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23105,8 +23339,8 @@
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -23130,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -23151,6 +23385,9 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23158,20 +23395,20 @@
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>0</v>
+      <c r="B80" t="s">
+        <v>161</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -23180,10 +23417,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -23204,6 +23441,9 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23211,14 +23451,14 @@
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -23227,10 +23467,10 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -23254,9 +23494,12 @@
         <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
         <v>0</v>
       </c>
     </row>

--- a/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
+++ b/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
@@ -46,6 +46,18 @@
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -58,22 +70,16 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
+    <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">Benin</t>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
   </si>
   <si>
-    <t xml:space="preserve">BO</t>
+    <t xml:space="preserve">CM</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRC</t>
+    <t xml:space="preserve">Cameroon</t>
   </si>
   <si>
     <t xml:space="preserve">CF</t>
@@ -82,28 +88,22 @@
     <t xml:space="preserve">CAR</t>
   </si>
   <si>
-    <t xml:space="preserve">CG</t>
+    <t xml:space="preserve">TD</t>
   </si>
   <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
+    <t xml:space="preserve">Chad</t>
   </si>
   <si>
     <t xml:space="preserve">CO</t>
   </si>
   <si>
     <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
   </si>
   <si>
     <t xml:space="preserve">country-unspecified</t>
@@ -130,10 +130,22 @@
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC</t>
+  </si>
+  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
     <t xml:space="preserve">ER</t>
@@ -154,10 +166,10 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
-    <t xml:space="preserve">GD</t>
+    <t xml:space="preserve">GM</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenada</t>
+    <t xml:space="preserve">Gambia</t>
   </si>
   <si>
     <t xml:space="preserve">GE</t>
@@ -172,22 +184,22 @@
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">GM</t>
+    <t xml:space="preserve">GD</t>
   </si>
   <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GW</t>
@@ -202,16 +214,22 @@
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">HT</t>
+    <t xml:space="preserve">IN</t>
   </si>
   <si>
-    <t xml:space="preserve">Haiti</t>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -220,22 +238,16 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
+    <t xml:space="preserve">IR</t>
   </si>
   <si>
-    <t xml:space="preserve">India</t>
+    <t xml:space="preserve">Iran</t>
   </si>
   <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
     <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
   </si>
   <si>
     <t xml:space="preserve">KE</t>
@@ -250,12 +262,6 @@
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA</t>
   </si>
   <si>
@@ -268,22 +274,16 @@
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
-    <t xml:space="preserve">LK</t>
+    <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <t xml:space="preserve">Sri Lanka</t>
+    <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
     <t xml:space="preserve">LR</t>
   </si>
   <si>
     <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
     <t xml:space="preserve">LY</t>
@@ -298,10 +298,34 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
     <t xml:space="preserve">ML</t>
   </si>
   <si>
     <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
     <t xml:space="preserve">MM</t>
@@ -310,34 +334,22 @@
     <t xml:space="preserve">Myanmar</t>
   </si>
   <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
     <t xml:space="preserve">NE</t>
@@ -352,16 +364,22 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">NI</t>
+    <t xml:space="preserve">KP</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicaragua</t>
+    <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
+    <t xml:space="preserve">PK</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepal</t>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
   </si>
   <si>
     <t xml:space="preserve">PE</t>
@@ -376,34 +394,16 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
     <t xml:space="preserve">RU</t>
   </si>
   <si>
     <t xml:space="preserve">Russian Federation</t>
   </si>
   <si>
-    <t xml:space="preserve">SB</t>
+    <t xml:space="preserve">SN</t>
   </si>
   <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
+    <t xml:space="preserve">Senegal</t>
   </si>
   <si>
     <t xml:space="preserve">SL</t>
@@ -412,10 +412,10 @@
     <t xml:space="preserve">Sierra Leone</t>
   </si>
   <si>
-    <t xml:space="preserve">SN</t>
+    <t xml:space="preserve">SB</t>
   </si>
   <si>
-    <t xml:space="preserve">Senegal</t>
+    <t xml:space="preserve">Solomon Islands</t>
   </si>
   <si>
     <t xml:space="preserve">SO</t>
@@ -430,10 +430,22 @@
     <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SV</t>
+    <t xml:space="preserve">LK</t>
   </si>
   <si>
-    <t xml:space="preserve">El Salvador</t>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
     <t xml:space="preserve">SY</t>
@@ -442,22 +454,16 @@
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
     <t xml:space="preserve">TJ</t>
   </si>
   <si>
     <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">TL</t>
@@ -466,22 +472,16 @@
     <t xml:space="preserve">Timor-Leste</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
+    <t xml:space="preserve">UG</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
     <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">VU</t>
@@ -1786,7 +1786,7 @@
         <v>2005</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1814,7 +1814,7 @@
         <v>2007</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1842,7 +1842,7 @@
         <v>2009</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1856,7 +1856,7 @@
         <v>2010</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1884,7 +1884,7 @@
         <v>2012</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1898,7 +1898,7 @@
         <v>2013</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1912,7 +1912,7 @@
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1926,7 +1926,7 @@
         <v>2015</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1940,7 +1940,7 @@
         <v>2000</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1954,7 +1954,7 @@
         <v>2001</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1968,7 +1968,7 @@
         <v>2002</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1982,7 +1982,7 @@
         <v>2003</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2010,7 +2010,7 @@
         <v>2005</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2024,7 +2024,7 @@
         <v>2006</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2052,7 +2052,7 @@
         <v>2008</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2150,7 +2150,7 @@
         <v>2015</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2234,7 +2234,7 @@
         <v>2005</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2262,7 +2262,7 @@
         <v>2007</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2290,7 +2290,7 @@
         <v>2009</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2304,7 +2304,7 @@
         <v>2010</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2332,7 +2332,7 @@
         <v>2012</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2346,7 +2346,7 @@
         <v>2013</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2360,7 +2360,7 @@
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2374,7 +2374,7 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2388,7 +2388,7 @@
         <v>2000</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2402,7 +2402,7 @@
         <v>2001</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2416,7 +2416,7 @@
         <v>2002</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2430,7 +2430,7 @@
         <v>2003</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2458,7 +2458,7 @@
         <v>2005</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2472,7 +2472,7 @@
         <v>2006</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2500,7 +2500,7 @@
         <v>2008</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2598,7 +2598,7 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2612,7 +2612,7 @@
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2626,7 +2626,7 @@
         <v>2001</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2640,7 +2640,7 @@
         <v>2002</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2654,7 +2654,7 @@
         <v>2003</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -2752,7 +2752,7 @@
         <v>2010</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2766,7 +2766,7 @@
         <v>2011</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2794,7 +2794,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2808,7 +2808,7 @@
         <v>2014</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2822,7 +2822,7 @@
         <v>2015</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2878,7 +2878,7 @@
         <v>2003</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2892,7 +2892,7 @@
         <v>2004</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2906,7 +2906,7 @@
         <v>2005</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2920,7 +2920,7 @@
         <v>2006</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2934,7 +2934,7 @@
         <v>2007</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2948,7 +2948,7 @@
         <v>2008</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2962,7 +2962,7 @@
         <v>2009</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2976,7 +2976,7 @@
         <v>2010</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2990,7 +2990,7 @@
         <v>2011</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3004,7 +3004,7 @@
         <v>2012</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3018,7 +3018,7 @@
         <v>2013</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3046,7 +3046,7 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -3060,7 +3060,7 @@
         <v>2000</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3074,7 +3074,7 @@
         <v>2001</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3088,7 +3088,7 @@
         <v>2002</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3102,7 +3102,7 @@
         <v>2003</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -3116,7 +3116,7 @@
         <v>2004</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3172,7 +3172,7 @@
         <v>2008</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3186,7 +3186,7 @@
         <v>2009</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3214,7 +3214,7 @@
         <v>2011</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3228,7 +3228,7 @@
         <v>2012</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3242,7 +3242,7 @@
         <v>2013</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3270,7 +3270,7 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3326,7 +3326,7 @@
         <v>2003</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3424,7 +3424,7 @@
         <v>2010</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3438,7 +3438,7 @@
         <v>2011</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -3466,7 +3466,7 @@
         <v>2013</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -3480,7 +3480,7 @@
         <v>2014</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -3494,7 +3494,7 @@
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -3550,7 +3550,7 @@
         <v>2003</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -3704,7 +3704,7 @@
         <v>2014</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3718,7 +3718,7 @@
         <v>2015</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3732,7 +3732,7 @@
         <v>2000</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -3746,7 +3746,7 @@
         <v>2001</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -3760,7 +3760,7 @@
         <v>2002</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -3774,7 +3774,7 @@
         <v>2003</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3802,7 +3802,7 @@
         <v>2005</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -3816,7 +3816,7 @@
         <v>2006</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -3830,7 +3830,7 @@
         <v>2007</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3872,7 +3872,7 @@
         <v>2010</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -3928,7 +3928,7 @@
         <v>2014</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -4852,7 +4852,7 @@
         <v>2000</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -4866,7 +4866,7 @@
         <v>2001</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -4880,7 +4880,7 @@
         <v>2002</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -4894,7 +4894,7 @@
         <v>2003</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -4908,7 +4908,7 @@
         <v>2004</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -4922,7 +4922,7 @@
         <v>2005</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -4936,7 +4936,7 @@
         <v>2006</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -4950,7 +4950,7 @@
         <v>2007</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -4964,7 +4964,7 @@
         <v>2008</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -4978,7 +4978,7 @@
         <v>2009</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -4992,7 +4992,7 @@
         <v>2010</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -5006,7 +5006,7 @@
         <v>2011</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -5020,7 +5020,7 @@
         <v>2012</v>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -5034,7 +5034,7 @@
         <v>2013</v>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -5048,7 +5048,7 @@
         <v>2014</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -5062,7 +5062,7 @@
         <v>2015</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -5090,7 +5090,7 @@
         <v>2001</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -5104,7 +5104,7 @@
         <v>2002</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -5118,7 +5118,7 @@
         <v>2003</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -5132,7 +5132,7 @@
         <v>2004</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -5146,7 +5146,7 @@
         <v>2005</v>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -5314,7 +5314,7 @@
         <v>2001</v>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -5370,7 +5370,7 @@
         <v>2005</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -5384,7 +5384,7 @@
         <v>2006</v>
       </c>
       <c r="D312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -5426,7 +5426,7 @@
         <v>2009</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -5454,7 +5454,7 @@
         <v>2011</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -5538,7 +5538,7 @@
         <v>2001</v>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -5552,7 +5552,7 @@
         <v>2002</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -5566,7 +5566,7 @@
         <v>2003</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5580,7 +5580,7 @@
         <v>2004</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -5594,7 +5594,7 @@
         <v>2005</v>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -5762,7 +5762,7 @@
         <v>2001</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -5804,7 +5804,7 @@
         <v>2004</v>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -5832,7 +5832,7 @@
         <v>2006</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -6084,7 +6084,7 @@
         <v>2008</v>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -6294,7 +6294,7 @@
         <v>2007</v>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6392,7 +6392,7 @@
         <v>2014</v>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -6406,7 +6406,7 @@
         <v>2015</v>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -6532,7 +6532,7 @@
         <v>2008</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -6616,7 +6616,7 @@
         <v>2014</v>
       </c>
       <c r="D400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -6630,7 +6630,7 @@
         <v>2015</v>
       </c>
       <c r="D401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -6672,7 +6672,7 @@
         <v>2002</v>
       </c>
       <c r="D404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -6686,7 +6686,7 @@
         <v>2003</v>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -6700,7 +6700,7 @@
         <v>2004</v>
       </c>
       <c r="D406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -6714,7 +6714,7 @@
         <v>2005</v>
       </c>
       <c r="D407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -6728,7 +6728,7 @@
         <v>2006</v>
       </c>
       <c r="D408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -6742,7 +6742,7 @@
         <v>2007</v>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -6840,7 +6840,7 @@
         <v>2014</v>
       </c>
       <c r="D416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -6924,7 +6924,7 @@
         <v>2004</v>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -6938,7 +6938,7 @@
         <v>2005</v>
       </c>
       <c r="D423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -7008,7 +7008,7 @@
         <v>2010</v>
       </c>
       <c r="D428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -7078,7 +7078,7 @@
         <v>2015</v>
       </c>
       <c r="D433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -7162,7 +7162,7 @@
         <v>2005</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -7176,7 +7176,7 @@
         <v>2006</v>
       </c>
       <c r="D440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -7232,7 +7232,7 @@
         <v>2010</v>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -7302,7 +7302,7 @@
         <v>2015</v>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -7344,7 +7344,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -7358,7 +7358,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -7372,7 +7372,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -7400,7 +7400,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -7512,7 +7512,7 @@
         <v>2014</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -7624,7 +7624,7 @@
         <v>2006</v>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -7652,7 +7652,7 @@
         <v>2008</v>
       </c>
       <c r="D474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -7750,7 +7750,7 @@
         <v>2015</v>
       </c>
       <c r="D481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -7806,7 +7806,7 @@
         <v>2003</v>
       </c>
       <c r="D485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -7820,7 +7820,7 @@
         <v>2004</v>
       </c>
       <c r="D486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -7834,7 +7834,7 @@
         <v>2005</v>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -7876,7 +7876,7 @@
         <v>2008</v>
       </c>
       <c r="D490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -7904,7 +7904,7 @@
         <v>2010</v>
       </c>
       <c r="D492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -7918,7 +7918,7 @@
         <v>2011</v>
       </c>
       <c r="D493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -7932,7 +7932,7 @@
         <v>2012</v>
       </c>
       <c r="D494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -7946,7 +7946,7 @@
         <v>2013</v>
       </c>
       <c r="D495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -7960,7 +7960,7 @@
         <v>2014</v>
       </c>
       <c r="D496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -7974,7 +7974,7 @@
         <v>2015</v>
       </c>
       <c r="D497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -7988,7 +7988,7 @@
         <v>2000</v>
       </c>
       <c r="D498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -8002,7 +8002,7 @@
         <v>2001</v>
       </c>
       <c r="D499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -8016,7 +8016,7 @@
         <v>2002</v>
       </c>
       <c r="D500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -8044,7 +8044,7 @@
         <v>2004</v>
       </c>
       <c r="D502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -8072,7 +8072,7 @@
         <v>2006</v>
       </c>
       <c r="D504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -8100,7 +8100,7 @@
         <v>2008</v>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -8114,7 +8114,7 @@
         <v>2009</v>
       </c>
       <c r="D507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -8128,7 +8128,7 @@
         <v>2010</v>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -8142,7 +8142,7 @@
         <v>2011</v>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -8156,7 +8156,7 @@
         <v>2012</v>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -8170,7 +8170,7 @@
         <v>2013</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -8184,7 +8184,7 @@
         <v>2014</v>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -8198,7 +8198,7 @@
         <v>2015</v>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -8282,7 +8282,7 @@
         <v>2005</v>
       </c>
       <c r="D519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -8324,7 +8324,7 @@
         <v>2008</v>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -8422,7 +8422,7 @@
         <v>2015</v>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -8478,7 +8478,7 @@
         <v>2003</v>
       </c>
       <c r="D533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -8506,7 +8506,7 @@
         <v>2005</v>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -8534,7 +8534,7 @@
         <v>2007</v>
       </c>
       <c r="D537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -8548,7 +8548,7 @@
         <v>2008</v>
       </c>
       <c r="D538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -8562,7 +8562,7 @@
         <v>2009</v>
       </c>
       <c r="D539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -8576,7 +8576,7 @@
         <v>2010</v>
       </c>
       <c r="D540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -8632,7 +8632,7 @@
         <v>2014</v>
       </c>
       <c r="D544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -8646,7 +8646,7 @@
         <v>2015</v>
       </c>
       <c r="D545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -8660,7 +8660,7 @@
         <v>2000</v>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -8674,7 +8674,7 @@
         <v>2001</v>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -8688,7 +8688,7 @@
         <v>2002</v>
       </c>
       <c r="D548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -8702,7 +8702,7 @@
         <v>2003</v>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -8744,7 +8744,7 @@
         <v>2006</v>
       </c>
       <c r="D552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -8786,7 +8786,7 @@
         <v>2009</v>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -8898,7 +8898,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -8968,7 +8968,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -8996,7 +8996,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -9010,7 +9010,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -9024,7 +9024,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -9038,7 +9038,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -9052,7 +9052,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -9066,7 +9066,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -9150,7 +9150,7 @@
         <v>2003</v>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -9206,7 +9206,7 @@
         <v>2007</v>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -9234,7 +9234,7 @@
         <v>2009</v>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -9248,7 +9248,7 @@
         <v>2010</v>
       </c>
       <c r="D588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -9304,7 +9304,7 @@
         <v>2014</v>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -9318,7 +9318,7 @@
         <v>2015</v>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -9332,7 +9332,7 @@
         <v>2000</v>
       </c>
       <c r="D594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -9360,7 +9360,7 @@
         <v>2002</v>
       </c>
       <c r="D596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -9374,7 +9374,7 @@
         <v>2003</v>
       </c>
       <c r="D597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -9416,7 +9416,7 @@
         <v>2006</v>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -9430,7 +9430,7 @@
         <v>2007</v>
       </c>
       <c r="D601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -9444,7 +9444,7 @@
         <v>2008</v>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -9458,7 +9458,7 @@
         <v>2009</v>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -9472,7 +9472,7 @@
         <v>2010</v>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -9514,7 +9514,7 @@
         <v>2013</v>
       </c>
       <c r="D607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -9542,7 +9542,7 @@
         <v>2015</v>
       </c>
       <c r="D609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -9682,7 +9682,7 @@
         <v>2009</v>
       </c>
       <c r="D619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -9696,7 +9696,7 @@
         <v>2010</v>
       </c>
       <c r="D620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -9864,7 +9864,7 @@
         <v>2006</v>
       </c>
       <c r="D632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -9878,7 +9878,7 @@
         <v>2007</v>
       </c>
       <c r="D633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -9892,7 +9892,7 @@
         <v>2008</v>
       </c>
       <c r="D634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -9906,7 +9906,7 @@
         <v>2009</v>
       </c>
       <c r="D635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -10032,7 +10032,7 @@
         <v>2002</v>
       </c>
       <c r="D644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -10116,7 +10116,7 @@
         <v>2008</v>
       </c>
       <c r="D650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -10130,7 +10130,7 @@
         <v>2009</v>
       </c>
       <c r="D651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -10144,7 +10144,7 @@
         <v>2010</v>
       </c>
       <c r="D652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -10158,7 +10158,7 @@
         <v>2011</v>
       </c>
       <c r="D653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -10172,7 +10172,7 @@
         <v>2012</v>
       </c>
       <c r="D654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -10284,7 +10284,7 @@
         <v>2004</v>
       </c>
       <c r="D662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -10312,7 +10312,7 @@
         <v>2006</v>
       </c>
       <c r="D664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -10340,7 +10340,7 @@
         <v>2008</v>
       </c>
       <c r="D666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -10424,7 +10424,7 @@
         <v>2014</v>
       </c>
       <c r="D672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -10508,7 +10508,7 @@
         <v>2004</v>
       </c>
       <c r="D678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -10536,7 +10536,7 @@
         <v>2006</v>
       </c>
       <c r="D680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -10564,7 +10564,7 @@
         <v>2008</v>
       </c>
       <c r="D682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -10648,7 +10648,7 @@
         <v>2014</v>
       </c>
       <c r="D688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -11152,7 +11152,7 @@
         <v>2002</v>
       </c>
       <c r="D724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -11166,7 +11166,7 @@
         <v>2003</v>
       </c>
       <c r="D725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -11194,7 +11194,7 @@
         <v>2005</v>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -11292,7 +11292,7 @@
         <v>2012</v>
       </c>
       <c r="D734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -11306,7 +11306,7 @@
         <v>2013</v>
       </c>
       <c r="D735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -11320,7 +11320,7 @@
         <v>2014</v>
       </c>
       <c r="D736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -11334,7 +11334,7 @@
         <v>2015</v>
       </c>
       <c r="D737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -11460,7 +11460,7 @@
         <v>2008</v>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -11516,7 +11516,7 @@
         <v>2012</v>
       </c>
       <c r="D750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -11530,7 +11530,7 @@
         <v>2013</v>
       </c>
       <c r="D751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -11712,7 +11712,7 @@
         <v>2010</v>
       </c>
       <c r="D764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -11740,7 +11740,7 @@
         <v>2012</v>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -11754,7 +11754,7 @@
         <v>2013</v>
       </c>
       <c r="D767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -11768,7 +11768,7 @@
         <v>2014</v>
       </c>
       <c r="D768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -11782,7 +11782,7 @@
         <v>2015</v>
       </c>
       <c r="D769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -11936,7 +11936,7 @@
         <v>2010</v>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -11964,7 +11964,7 @@
         <v>2012</v>
       </c>
       <c r="D782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -11978,7 +11978,7 @@
         <v>2013</v>
       </c>
       <c r="D783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -11992,7 +11992,7 @@
         <v>2014</v>
       </c>
       <c r="D784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -12006,7 +12006,7 @@
         <v>2015</v>
       </c>
       <c r="D785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -12048,7 +12048,7 @@
         <v>2002</v>
       </c>
       <c r="D788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -12090,7 +12090,7 @@
         <v>2005</v>
       </c>
       <c r="D791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>2007</v>
       </c>
       <c r="D793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -12286,7 +12286,7 @@
         <v>2003</v>
       </c>
       <c r="D805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -12342,7 +12342,7 @@
         <v>2007</v>
       </c>
       <c r="D809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -12356,7 +12356,7 @@
         <v>2008</v>
       </c>
       <c r="D810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -12426,7 +12426,7 @@
         <v>2013</v>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -12440,7 +12440,7 @@
         <v>2014</v>
       </c>
       <c r="D816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -12454,7 +12454,7 @@
         <v>2015</v>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818">
@@ -12762,7 +12762,7 @@
         <v>2005</v>
       </c>
       <c r="D839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -12776,7 +12776,7 @@
         <v>2006</v>
       </c>
       <c r="D840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -12790,7 +12790,7 @@
         <v>2007</v>
       </c>
       <c r="D841" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -12804,7 +12804,7 @@
         <v>2008</v>
       </c>
       <c r="D842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -12818,7 +12818,7 @@
         <v>2009</v>
       </c>
       <c r="D843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -12832,7 +12832,7 @@
         <v>2010</v>
       </c>
       <c r="D844" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -12846,7 +12846,7 @@
         <v>2011</v>
       </c>
       <c r="D845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -12860,7 +12860,7 @@
         <v>2012</v>
       </c>
       <c r="D846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -12874,7 +12874,7 @@
         <v>2013</v>
       </c>
       <c r="D847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -12888,7 +12888,7 @@
         <v>2014</v>
       </c>
       <c r="D848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -13014,7 +13014,7 @@
         <v>2007</v>
       </c>
       <c r="D857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -13070,7 +13070,7 @@
         <v>2011</v>
       </c>
       <c r="D861" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
@@ -13112,7 +13112,7 @@
         <v>2014</v>
       </c>
       <c r="D864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -13126,7 +13126,7 @@
         <v>2015</v>
       </c>
       <c r="D865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -13210,7 +13210,7 @@
         <v>2005</v>
       </c>
       <c r="D871" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -13238,7 +13238,7 @@
         <v>2007</v>
       </c>
       <c r="D873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -13308,7 +13308,7 @@
         <v>2012</v>
       </c>
       <c r="D878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -13322,7 +13322,7 @@
         <v>2013</v>
       </c>
       <c r="D879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -13336,7 +13336,7 @@
         <v>2014</v>
       </c>
       <c r="D880" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -13350,7 +13350,7 @@
         <v>2015</v>
       </c>
       <c r="D881" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -13448,7 +13448,7 @@
         <v>2006</v>
       </c>
       <c r="D888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -13462,7 +13462,7 @@
         <v>2007</v>
       </c>
       <c r="D889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -13476,7 +13476,7 @@
         <v>2008</v>
       </c>
       <c r="D890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -13490,7 +13490,7 @@
         <v>2009</v>
       </c>
       <c r="D891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -13504,7 +13504,7 @@
         <v>2010</v>
       </c>
       <c r="D892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893">
@@ -13560,7 +13560,7 @@
         <v>2014</v>
       </c>
       <c r="D896" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -13574,7 +13574,7 @@
         <v>2015</v>
       </c>
       <c r="D897" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -13588,7 +13588,7 @@
         <v>2000</v>
       </c>
       <c r="D898" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -13602,7 +13602,7 @@
         <v>2001</v>
       </c>
       <c r="D899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -13616,7 +13616,7 @@
         <v>2002</v>
       </c>
       <c r="D900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -13630,7 +13630,7 @@
         <v>2003</v>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -13644,7 +13644,7 @@
         <v>2004</v>
       </c>
       <c r="D902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -13742,7 +13742,7 @@
         <v>2011</v>
       </c>
       <c r="D909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -13756,7 +13756,7 @@
         <v>2012</v>
       </c>
       <c r="D910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -13798,7 +13798,7 @@
         <v>2015</v>
       </c>
       <c r="D913" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914">
@@ -13868,7 +13868,7 @@
         <v>2004</v>
       </c>
       <c r="D918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -13896,7 +13896,7 @@
         <v>2006</v>
       </c>
       <c r="D920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -13910,7 +13910,7 @@
         <v>2007</v>
       </c>
       <c r="D921" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -13952,7 +13952,7 @@
         <v>2010</v>
       </c>
       <c r="D924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
@@ -13994,7 +13994,7 @@
         <v>2013</v>
       </c>
       <c r="D927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -14008,7 +14008,7 @@
         <v>2014</v>
       </c>
       <c r="D928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -14078,7 +14078,7 @@
         <v>2003</v>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -14092,7 +14092,7 @@
         <v>2004</v>
       </c>
       <c r="D934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -14106,7 +14106,7 @@
         <v>2005</v>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -14120,7 +14120,7 @@
         <v>2006</v>
       </c>
       <c r="D936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -14148,7 +14148,7 @@
         <v>2008</v>
       </c>
       <c r="D938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -14176,7 +14176,7 @@
         <v>2010</v>
       </c>
       <c r="D940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -14218,7 +14218,7 @@
         <v>2013</v>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -14232,7 +14232,7 @@
         <v>2014</v>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945">
@@ -14246,7 +14246,7 @@
         <v>2015</v>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -14302,7 +14302,7 @@
         <v>2003</v>
       </c>
       <c r="D949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950">
@@ -14316,7 +14316,7 @@
         <v>2004</v>
       </c>
       <c r="D950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -14330,7 +14330,7 @@
         <v>2005</v>
       </c>
       <c r="D951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -14344,7 +14344,7 @@
         <v>2006</v>
       </c>
       <c r="D952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -14372,7 +14372,7 @@
         <v>2008</v>
       </c>
       <c r="D954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -14386,7 +14386,7 @@
         <v>2009</v>
       </c>
       <c r="D955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -14400,7 +14400,7 @@
         <v>2010</v>
       </c>
       <c r="D956" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -14414,7 +14414,7 @@
         <v>2011</v>
       </c>
       <c r="D957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -14428,7 +14428,7 @@
         <v>2012</v>
       </c>
       <c r="D958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -14442,7 +14442,7 @@
         <v>2013</v>
       </c>
       <c r="D959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -14456,7 +14456,7 @@
         <v>2014</v>
       </c>
       <c r="D960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961">
@@ -14470,7 +14470,7 @@
         <v>2015</v>
       </c>
       <c r="D961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -14498,7 +14498,7 @@
         <v>2001</v>
       </c>
       <c r="D963" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -14512,7 +14512,7 @@
         <v>2002</v>
       </c>
       <c r="D964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -14526,7 +14526,7 @@
         <v>2003</v>
       </c>
       <c r="D965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -14554,7 +14554,7 @@
         <v>2005</v>
       </c>
       <c r="D967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -14582,7 +14582,7 @@
         <v>2007</v>
       </c>
       <c r="D969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -14610,7 +14610,7 @@
         <v>2009</v>
       </c>
       <c r="D971" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -14638,7 +14638,7 @@
         <v>2011</v>
       </c>
       <c r="D973" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -14652,7 +14652,7 @@
         <v>2012</v>
       </c>
       <c r="D974" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975">
@@ -14666,7 +14666,7 @@
         <v>2013</v>
       </c>
       <c r="D975" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976">
@@ -14680,7 +14680,7 @@
         <v>2014</v>
       </c>
       <c r="D976" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -14722,7 +14722,7 @@
         <v>2001</v>
       </c>
       <c r="D979" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980">
@@ -14736,7 +14736,7 @@
         <v>2002</v>
       </c>
       <c r="D980" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981">
@@ -14750,7 +14750,7 @@
         <v>2003</v>
       </c>
       <c r="D981" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982">
@@ -14764,7 +14764,7 @@
         <v>2004</v>
       </c>
       <c r="D982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -14778,7 +14778,7 @@
         <v>2005</v>
       </c>
       <c r="D983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -14792,7 +14792,7 @@
         <v>2006</v>
       </c>
       <c r="D984" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985">
@@ -14932,7 +14932,7 @@
         <v>2000</v>
       </c>
       <c r="D994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995">
@@ -14946,7 +14946,7 @@
         <v>2001</v>
       </c>
       <c r="D995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996">
@@ -14960,7 +14960,7 @@
         <v>2002</v>
       </c>
       <c r="D996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -14974,7 +14974,7 @@
         <v>2003</v>
       </c>
       <c r="D997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -14988,7 +14988,7 @@
         <v>2004</v>
       </c>
       <c r="D998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -15002,7 +15002,7 @@
         <v>2005</v>
       </c>
       <c r="D999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000">
@@ -15016,7 +15016,7 @@
         <v>2006</v>
       </c>
       <c r="D1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001">
@@ -15030,7 +15030,7 @@
         <v>2007</v>
       </c>
       <c r="D1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -15044,7 +15044,7 @@
         <v>2008</v>
       </c>
       <c r="D1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -15058,7 +15058,7 @@
         <v>2009</v>
       </c>
       <c r="D1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -15072,7 +15072,7 @@
         <v>2010</v>
       </c>
       <c r="D1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005">
@@ -15086,7 +15086,7 @@
         <v>2011</v>
       </c>
       <c r="D1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006">
@@ -15100,7 +15100,7 @@
         <v>2012</v>
       </c>
       <c r="D1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -15114,7 +15114,7 @@
         <v>2013</v>
       </c>
       <c r="D1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -15478,7 +15478,7 @@
         <v>2007</v>
       </c>
       <c r="D1033" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034">
@@ -15576,7 +15576,7 @@
         <v>2014</v>
       </c>
       <c r="D1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -15590,7 +15590,7 @@
         <v>2015</v>
       </c>
       <c r="D1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042">
@@ -16080,7 +16080,7 @@
         <v>2002</v>
       </c>
       <c r="D1076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077">
@@ -16122,7 +16122,7 @@
         <v>2005</v>
       </c>
       <c r="D1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -16136,7 +16136,7 @@
         <v>2006</v>
       </c>
       <c r="D1080" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -16150,7 +16150,7 @@
         <v>2007</v>
       </c>
       <c r="D1081" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082">
@@ -16164,7 +16164,7 @@
         <v>2008</v>
       </c>
       <c r="D1082" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083">
@@ -16192,7 +16192,7 @@
         <v>2010</v>
       </c>
       <c r="D1084" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085">
@@ -16206,7 +16206,7 @@
         <v>2011</v>
       </c>
       <c r="D1085" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -16220,7 +16220,7 @@
         <v>2012</v>
       </c>
       <c r="D1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -16276,7 +16276,7 @@
         <v>2000</v>
       </c>
       <c r="D1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -16290,7 +16290,7 @@
         <v>2001</v>
       </c>
       <c r="D1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
@@ -16304,7 +16304,7 @@
         <v>2002</v>
       </c>
       <c r="D1092" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -16318,7 +16318,7 @@
         <v>2003</v>
       </c>
       <c r="D1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -16332,7 +16332,7 @@
         <v>2004</v>
       </c>
       <c r="D1094" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
@@ -16346,7 +16346,7 @@
         <v>2005</v>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -16360,7 +16360,7 @@
         <v>2006</v>
       </c>
       <c r="D1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -16374,7 +16374,7 @@
         <v>2007</v>
       </c>
       <c r="D1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098">
@@ -16416,7 +16416,7 @@
         <v>2010</v>
       </c>
       <c r="D1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
@@ -16430,7 +16430,7 @@
         <v>2011</v>
       </c>
       <c r="D1101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -16444,7 +16444,7 @@
         <v>2012</v>
       </c>
       <c r="D1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103">
@@ -16458,7 +16458,7 @@
         <v>2013</v>
       </c>
       <c r="D1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -16472,7 +16472,7 @@
         <v>2014</v>
       </c>
       <c r="D1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105">
@@ -16486,7 +16486,7 @@
         <v>2015</v>
       </c>
       <c r="D1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106">
@@ -16780,7 +16780,7 @@
         <v>2004</v>
       </c>
       <c r="D1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -16794,7 +16794,7 @@
         <v>2005</v>
       </c>
       <c r="D1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -16808,7 +16808,7 @@
         <v>2006</v>
       </c>
       <c r="D1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129">
@@ -16822,7 +16822,7 @@
         <v>2007</v>
       </c>
       <c r="D1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -16864,7 +16864,7 @@
         <v>2010</v>
       </c>
       <c r="D1132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133">
@@ -16878,7 +16878,7 @@
         <v>2011</v>
       </c>
       <c r="D1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134">
@@ -16892,7 +16892,7 @@
         <v>2012</v>
       </c>
       <c r="D1134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -16906,7 +16906,7 @@
         <v>2013</v>
       </c>
       <c r="D1135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136">
@@ -16920,7 +16920,7 @@
         <v>2014</v>
       </c>
       <c r="D1136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -16934,7 +16934,7 @@
         <v>2015</v>
       </c>
       <c r="D1137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138">
@@ -17172,7 +17172,7 @@
         <v>2000</v>
       </c>
       <c r="D1154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155">
@@ -17186,7 +17186,7 @@
         <v>2001</v>
       </c>
       <c r="D1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156">
@@ -17200,7 +17200,7 @@
         <v>2002</v>
       </c>
       <c r="D1156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -17228,7 +17228,7 @@
         <v>2004</v>
       </c>
       <c r="D1158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159">
@@ -17256,7 +17256,7 @@
         <v>2006</v>
       </c>
       <c r="D1160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
@@ -17270,7 +17270,7 @@
         <v>2007</v>
       </c>
       <c r="D1161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162">
@@ -17284,7 +17284,7 @@
         <v>2008</v>
       </c>
       <c r="D1162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163">
@@ -17396,7 +17396,7 @@
         <v>2000</v>
       </c>
       <c r="D1170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171">
@@ -17410,7 +17410,7 @@
         <v>2001</v>
       </c>
       <c r="D1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172">
@@ -17424,7 +17424,7 @@
         <v>2002</v>
       </c>
       <c r="D1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173">
@@ -17452,7 +17452,7 @@
         <v>2004</v>
       </c>
       <c r="D1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -17480,7 +17480,7 @@
         <v>2006</v>
       </c>
       <c r="D1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
@@ -17494,7 +17494,7 @@
         <v>2007</v>
       </c>
       <c r="D1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -17508,7 +17508,7 @@
         <v>2008</v>
       </c>
       <c r="D1178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -17620,7 +17620,7 @@
         <v>2000</v>
       </c>
       <c r="D1186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187">
@@ -17634,7 +17634,7 @@
         <v>2001</v>
       </c>
       <c r="D1187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188">
@@ -17648,7 +17648,7 @@
         <v>2002</v>
       </c>
       <c r="D1188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189">
@@ -17662,7 +17662,7 @@
         <v>2003</v>
       </c>
       <c r="D1189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190">
@@ -17676,7 +17676,7 @@
         <v>2004</v>
       </c>
       <c r="D1190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191">
@@ -17690,7 +17690,7 @@
         <v>2005</v>
       </c>
       <c r="D1191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192">
@@ -17704,7 +17704,7 @@
         <v>2006</v>
       </c>
       <c r="D1192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193">
@@ -17718,7 +17718,7 @@
         <v>2007</v>
       </c>
       <c r="D1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194">
@@ -17732,7 +17732,7 @@
         <v>2008</v>
       </c>
       <c r="D1194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195">
@@ -17746,7 +17746,7 @@
         <v>2009</v>
       </c>
       <c r="D1195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196">
@@ -17760,7 +17760,7 @@
         <v>2010</v>
       </c>
       <c r="D1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -17816,7 +17816,7 @@
         <v>2014</v>
       </c>
       <c r="D1200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201">
@@ -17830,7 +17830,7 @@
         <v>2015</v>
       </c>
       <c r="D1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -17844,7 +17844,7 @@
         <v>2000</v>
       </c>
       <c r="D1202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203">
@@ -17858,7 +17858,7 @@
         <v>2001</v>
       </c>
       <c r="D1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -17872,7 +17872,7 @@
         <v>2002</v>
       </c>
       <c r="D1204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -17886,7 +17886,7 @@
         <v>2003</v>
       </c>
       <c r="D1205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206">
@@ -17900,7 +17900,7 @@
         <v>2004</v>
       </c>
       <c r="D1206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -17914,7 +17914,7 @@
         <v>2005</v>
       </c>
       <c r="D1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
@@ -17928,7 +17928,7 @@
         <v>2006</v>
       </c>
       <c r="D1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
@@ -17942,7 +17942,7 @@
         <v>2007</v>
       </c>
       <c r="D1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210">
@@ -17956,7 +17956,7 @@
         <v>2008</v>
       </c>
       <c r="D1210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211">
@@ -17970,7 +17970,7 @@
         <v>2009</v>
       </c>
       <c r="D1211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212">
@@ -17984,7 +17984,7 @@
         <v>2010</v>
       </c>
       <c r="D1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213">
@@ -18040,7 +18040,7 @@
         <v>2014</v>
       </c>
       <c r="D1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217">
@@ -18054,7 +18054,7 @@
         <v>2015</v>
       </c>
       <c r="D1217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -18972,51 +18972,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>175</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>176</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>177</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -19024,14 +19027,14 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -19040,20 +19043,20 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
@@ -19070,6 +19073,9 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19077,8 +19083,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -19096,7 +19102,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -19123,6 +19129,9 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19130,8 +19139,8 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -19143,10 +19152,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -19176,6 +19185,9 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19183,8 +19195,8 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -19202,69 +19214,72 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -19282,15 +19297,18 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -19305,7 +19323,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -19314,54 +19332,57 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -19389,26 +19410,29 @@
       </c>
       <c r="Q8" t="n">
         <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -19429,27 +19453,30 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -19458,63 +19485,66 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -19526,36 +19556,39 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -19564,10 +19597,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -19585,30 +19618,33 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -19620,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -19650,24 +19686,27 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -19679,13 +19718,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -19694,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -19706,6 +19745,9 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19713,35 +19755,35 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -19750,15 +19792,18 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19766,8 +19811,8 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -19791,10 +19836,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -19806,12 +19851,15 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19819,14 +19867,14 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -19835,25 +19883,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -19865,6 +19913,9 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19872,8 +19923,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -19894,10 +19945,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -19918,6 +19969,9 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19925,76 +19979,79 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -20024,6 +20081,9 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20031,11 +20091,11 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -20050,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -20062,13 +20122,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -20077,6 +20137,9 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20084,26 +20147,26 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -20130,6 +20193,9 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20137,20 +20203,20 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -20159,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -20183,6 +20249,9 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20190,8 +20259,8 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -20215,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -20236,6 +20305,9 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20243,8 +20315,8 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -20265,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -20289,15 +20361,18 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -20324,7 +20399,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -20339,42 +20414,45 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -20392,9 +20470,12 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20402,8 +20483,8 @@
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -20433,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -20448,15 +20529,18 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -20489,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -20502,14 +20586,17 @@
       </c>
       <c r="Q29" t="n">
         <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -20518,19 +20605,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -20554,6 +20641,9 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20561,8 +20651,8 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -20583,10 +20673,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -20607,15 +20697,18 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -20624,69 +20717,72 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -20701,27 +20797,30 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -20736,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -20748,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -20767,14 +20866,17 @@
       </c>
       <c r="Q34" t="n">
         <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -20783,7 +20885,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -20792,19 +20894,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -20816,39 +20918,42 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -20857,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -20872,6 +20977,9 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20879,11 +20987,11 @@
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -20892,39 +21000,42 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20932,8 +21043,8 @@
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -20945,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -20960,13 +21071,13 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -20978,68 +21089,74 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -21063,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -21072,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -21084,6 +21201,9 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21091,8 +21211,8 @@
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -21110,19 +21230,19 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -21137,6 +21257,9 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21144,14 +21267,14 @@
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -21163,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -21172,16 +21295,16 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -21190,6 +21313,9 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21197,14 +21323,14 @@
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -21216,10 +21342,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -21234,15 +21360,18 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21250,23 +21379,23 @@
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -21275,10 +21404,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -21287,15 +21416,18 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21303,8 +21435,8 @@
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -21337,10 +21469,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -21349,6 +21481,9 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21356,8 +21491,8 @@
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -21369,16 +21504,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -21387,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -21402,6 +21537,9 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21409,8 +21547,8 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -21419,16 +21557,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -21446,24 +21584,27 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -21487,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -21502,12 +21643,15 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
       <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21515,8 +21659,8 @@
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -21546,7 +21690,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -21555,21 +21699,24 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -21602,42 +21749,45 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -21646,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -21667,6 +21817,9 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21674,8 +21827,8 @@
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -21684,7 +21837,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -21696,13 +21849,13 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -21717,18 +21870,21 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -21755,16 +21911,16 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -21773,6 +21929,9 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21780,8 +21939,8 @@
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -21796,36 +21955,39 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21833,8 +21995,8 @@
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -21858,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -21870,24 +22032,27 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -21905,10 +22070,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -21920,27 +22085,30 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -21958,66 +22126,69 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
         <v>2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -22029,24 +22200,27 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -22058,28 +22232,28 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
@@ -22088,9 +22262,12 @@
         <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22098,8 +22275,8 @@
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -22111,25 +22288,25 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -22138,21 +22315,24 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -22161,69 +22341,72 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -22235,21 +22418,24 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22257,32 +22443,32 @@
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -22303,6 +22489,9 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22310,52 +22499,55 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22363,8 +22555,8 @@
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -22379,7 +22571,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -22406,9 +22598,12 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22416,8 +22611,8 @@
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -22441,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -22459,18 +22654,21 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -22488,11 +22686,11 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
         <v>1</v>
       </c>
@@ -22515,6 +22713,9 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22522,8 +22723,8 @@
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -22556,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>1</v>
@@ -22565,9 +22766,12 @@
         <v>1</v>
       </c>
       <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
         <v>2</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22575,8 +22779,8 @@
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>0</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -22585,42 +22789,45 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22628,73 +22835,76 @@
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -22703,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -22727,6 +22937,9 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22734,8 +22947,8 @@
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -22747,19 +22960,19 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -22768,27 +22981,30 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>1</v>
+      <c r="B73" t="s">
+        <v>147</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -22803,23 +23019,23 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
         <v>2</v>
       </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
@@ -22833,6 +23049,9 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22840,14 +23059,14 @@
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -22856,16 +23075,16 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -22886,6 +23105,9 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22893,20 +23115,20 @@
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>1</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -22915,13 +23137,13 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -22939,6 +23161,9 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22946,41 +23171,41 @@
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -22989,48 +23214,51 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>1</v>
+      <c r="B77" t="s">
+        <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -23045,15 +23273,18 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -23098,6 +23329,9 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23105,8 +23339,8 @@
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -23130,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -23151,6 +23385,9 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23158,20 +23395,20 @@
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>0</v>
+      <c r="B80" t="s">
+        <v>161</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -23180,10 +23417,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -23204,6 +23441,9 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23211,14 +23451,14 @@
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -23227,10 +23467,10 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -23254,9 +23494,12 @@
         <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
         <v>0</v>
       </c>
     </row>

--- a/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
+++ b/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
@@ -565,7 +565,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 60</t>
+    <t xml:space="preserve">Source: 61</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 8</t>

--- a/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
+++ b/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
@@ -565,7 +565,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 61</t>
+    <t xml:space="preserve">Source: 62</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 8</t>

--- a/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
+++ b/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
@@ -565,7 +565,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 60</t>
+    <t xml:space="preserve">Source: 62</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 8</t>

--- a/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
+++ b/user-data/number-of-un-appeals/number-of-un-appeals.xlsx
@@ -565,10 +565,10 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 62</t>
+    <t xml:space="preserve">Source: 61</t>
   </si>
   <si>
-    <t xml:space="preserve">Source-link: 8</t>
+    <t xml:space="preserve">Source-link: 7</t>
   </si>
   <si>
     <t xml:space="preserve"/>
